--- a/MDA-MB-231-Cell-Count-Data/GH1909_25nM_working_mod_8_22.xlsx
+++ b/MDA-MB-231-Cell-Count-Data/GH1909_25nM_working_mod_8_22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Documents\MATLAB\2020 Incucyte Data Cal-Val\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Desktop\Cell Count Data (Final MATLAB Format) v2\231\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +339,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:J99"/>
+      <selection activeCell="B1" sqref="B1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -353,22 +349,22 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1827</v>
+        <v>1608.368561735376</v>
       </c>
       <c r="C1">
-        <v>1867</v>
+        <v>1509.9051596532036</v>
       </c>
       <c r="D1">
-        <v>1823</v>
+        <v>1417.3751014610389</v>
       </c>
       <c r="E1">
-        <v>2046</v>
+        <v>1637.9784017278619</v>
       </c>
       <c r="F1">
-        <v>2002</v>
+        <v>1687.4419970631423</v>
       </c>
       <c r="G1">
-        <v>1671</v>
+        <v>1319.2566010058674</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -376,22 +372,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1866</v>
+        <v>1642.7015523799737</v>
       </c>
       <c r="C2">
-        <v>1892</v>
+        <v>1530.1234933389721</v>
       </c>
       <c r="D2">
-        <v>1848</v>
+        <v>1436.8124999999998</v>
       </c>
       <c r="E2">
-        <v>2076</v>
+        <v>1661.9956803455725</v>
       </c>
       <c r="F2">
-        <v>2054</v>
+        <v>1731.2716593245225</v>
       </c>
       <c r="G2">
-        <v>1760</v>
+        <v>1389.5222129086335</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -399,22 +395,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1911</v>
+        <v>1682.3165415852784</v>
       </c>
       <c r="C3">
-        <v>1940</v>
+        <v>1568.9426940156479</v>
       </c>
       <c r="D3">
-        <v>1865</v>
+        <v>1450.0299310064934</v>
       </c>
       <c r="E3">
-        <v>2162</v>
+        <v>1730.8452123830095</v>
       </c>
       <c r="F3">
-        <v>2061</v>
+        <v>1737.1718061674007</v>
       </c>
       <c r="G3">
-        <v>1801</v>
+        <v>1421.8917644593459</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -422,22 +418,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2006</v>
+        <v>1765.9481854631442</v>
       </c>
       <c r="C4">
-        <v>2020</v>
+        <v>1633.6413618101078</v>
       </c>
       <c r="D4">
-        <v>1944</v>
+        <v>1511.4521103896102</v>
       </c>
       <c r="E4">
-        <v>2232</v>
+        <v>1786.8855291576676</v>
       </c>
       <c r="F4">
-        <v>2104</v>
+        <v>1773.4155653450805</v>
       </c>
       <c r="G4">
-        <v>1898</v>
+        <v>1498.4733864207878</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -445,22 +441,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2116</v>
+        <v>1862.7848257427781</v>
       </c>
       <c r="C5">
-        <v>2105</v>
+        <v>1702.3836963417211</v>
       </c>
       <c r="D5">
-        <v>2012</v>
+        <v>1564.3218344155841</v>
       </c>
       <c r="E5">
-        <v>2316</v>
+        <v>1854.1339092872572</v>
       </c>
       <c r="F5">
-        <v>2175</v>
+        <v>1833.2599118942728</v>
       </c>
       <c r="G5">
-        <v>1984</v>
+        <v>1566.3704945515506</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -468,22 +464,22 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>2218</v>
+        <v>1952.5788012748026</v>
       </c>
       <c r="C6">
-        <v>2227</v>
+        <v>1801.0491647282722</v>
       </c>
       <c r="D6">
-        <v>2140</v>
+        <v>1663.8413149350647</v>
       </c>
       <c r="E6">
-        <v>2436</v>
+        <v>1950.2030237580996</v>
       </c>
       <c r="F6">
-        <v>2290</v>
+        <v>1930.1908957415562</v>
       </c>
       <c r="G6">
-        <v>2103</v>
+        <v>1660.3211441743501</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -491,22 +487,22 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2306</v>
+        <v>2030.0481134985098</v>
       </c>
       <c r="C7">
-        <v>2314</v>
+        <v>1871.4089659547471</v>
       </c>
       <c r="D7">
-        <v>2277</v>
+        <v>1770.3582589285711</v>
       </c>
       <c r="E7">
-        <v>2471</v>
+        <v>1978.2231821454286</v>
       </c>
       <c r="F7">
-        <v>2365</v>
+        <v>1993.4067547723932</v>
       </c>
       <c r="G7">
-        <v>2203</v>
+        <v>1739.2712699077954</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -514,22 +510,22 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2388</v>
+        <v>2102.2354271615095</v>
       </c>
       <c r="C8">
-        <v>2385</v>
+        <v>1928.8290336223301</v>
       </c>
       <c r="D8">
-        <v>2341</v>
+        <v>1820.1179991883114</v>
       </c>
       <c r="E8">
-        <v>2608</v>
+        <v>2087.9020878329734</v>
       </c>
       <c r="F8">
-        <v>2451</v>
+        <v>2065.894273127753</v>
       </c>
       <c r="G8">
-        <v>2288</v>
+        <v>1806.3788767812237</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -537,22 +533,22 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>2498</v>
+        <v>2199.0720674411436</v>
       </c>
       <c r="C9">
-        <v>2475</v>
+        <v>2001.6150348910974</v>
       </c>
       <c r="D9">
-        <v>2474</v>
+        <v>1923.5249594155841</v>
       </c>
       <c r="E9">
-        <v>2685</v>
+        <v>2149.5464362850976</v>
       </c>
       <c r="F9">
-        <v>2549</v>
+        <v>2148.4963289280468</v>
       </c>
       <c r="G9">
-        <v>2357</v>
+        <v>1860.8544635373007</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -560,22 +556,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>2626</v>
+        <v>2311.7547034028998</v>
       </c>
       <c r="C10">
-        <v>2618</v>
+        <v>2117.2639035736938</v>
       </c>
       <c r="D10">
-        <v>2629</v>
+        <v>2044.0368303571427</v>
       </c>
       <c r="E10">
-        <v>2863</v>
+        <v>2292.0489560835135</v>
       </c>
       <c r="F10">
-        <v>2705</v>
+        <v>2279.9853157121879</v>
       </c>
       <c r="G10">
-        <v>2514</v>
+        <v>1984.8061609388094</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -583,22 +579,22 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>2876</v>
+        <v>2531.8379767657043</v>
       </c>
       <c r="C11">
-        <v>2841</v>
+        <v>2297.6114400507504</v>
       </c>
       <c r="D11">
-        <v>2830</v>
+        <v>2200.3135146103891</v>
       </c>
       <c r="E11">
-        <v>3016</v>
+        <v>2414.5370770338377</v>
       </c>
       <c r="F11">
-        <v>2946</v>
+        <v>2483.1189427312775</v>
       </c>
       <c r="G11">
-        <v>2691</v>
+        <v>2124.5478834870073</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -606,22 +602,22 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>3037</v>
+        <v>2673.5716048113504</v>
       </c>
       <c r="C12">
-        <v>2993</v>
+        <v>2420.5389088602237</v>
       </c>
       <c r="D12">
-        <v>2984</v>
+        <v>2320.0478896103891</v>
       </c>
       <c r="E12">
-        <v>3197</v>
+        <v>2559.4413246940248</v>
       </c>
       <c r="F12">
-        <v>3088</v>
+        <v>2602.8076358296621</v>
       </c>
       <c r="G12">
-        <v>2830</v>
+        <v>2234.2885582564959</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -629,22 +625,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>3254</v>
+        <v>2864.603886090265</v>
       </c>
       <c r="C13">
-        <v>3207</v>
+        <v>2593.6078452104039</v>
       </c>
       <c r="D13">
-        <v>3169</v>
+        <v>2463.884638798701</v>
       </c>
       <c r="E13">
-        <v>3399</v>
+        <v>2721.1576673866093</v>
       </c>
       <c r="F13">
-        <v>3277</v>
+        <v>2762.1116005873714</v>
       </c>
       <c r="G13">
-        <v>3058</v>
+        <v>2414.294844928751</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -652,22 +648,22 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>3460</v>
+        <v>3045.952503341216</v>
       </c>
       <c r="C14">
-        <v>3418</v>
+        <v>2764.2505815182913</v>
       </c>
       <c r="D14">
-        <v>3417</v>
+        <v>2656.7036323051943</v>
       </c>
       <c r="E14">
-        <v>3608</v>
+        <v>2888.4780417566599</v>
       </c>
       <c r="F14">
-        <v>3425</v>
+        <v>2886.8575624082227</v>
       </c>
       <c r="G14">
-        <v>3268</v>
+        <v>2580.0901089689855</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -675,22 +671,22 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>3623</v>
+        <v>3189.4467975737643</v>
       </c>
       <c r="C15">
-        <v>3601</v>
+        <v>2912.2487840981175</v>
       </c>
       <c r="D15">
-        <v>3672</v>
+        <v>2854.9650974025972</v>
       </c>
       <c r="E15">
-        <v>3802</v>
+        <v>3043.789776817855</v>
       </c>
       <c r="F15">
-        <v>3631</v>
+        <v>3060.4904552129219</v>
       </c>
       <c r="G15">
-        <v>3447</v>
+        <v>2721.4108340318521</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -698,22 +694,22 @@
         <v>44.966666666666697</v>
       </c>
       <c r="B16">
-        <v>3873</v>
+        <v>3409.5300709365692</v>
       </c>
       <c r="C16">
-        <v>3758</v>
+        <v>3039.219919644745</v>
       </c>
       <c r="D16">
-        <v>3802</v>
+        <v>2956.0395698051943</v>
       </c>
       <c r="E16">
-        <v>3967</v>
+        <v>3175.884809215263</v>
       </c>
       <c r="F16">
-        <v>3774</v>
+        <v>3181.0220264317177</v>
       </c>
       <c r="G16">
-        <v>3653</v>
+        <v>2884.0480930427489</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -721,22 +717,22 @@
         <v>47.966666666666697</v>
       </c>
       <c r="B17">
-        <v>4062</v>
+        <v>3575.9130255988493</v>
       </c>
       <c r="C17">
-        <v>3902</v>
+        <v>3155.6775216747724</v>
       </c>
       <c r="D17">
-        <v>4020</v>
+        <v>3125.5336850649346</v>
       </c>
       <c r="E17">
-        <v>4190</v>
+        <v>3354.4132469402452</v>
       </c>
       <c r="F17">
-        <v>3901</v>
+        <v>3288.0675477239351</v>
       </c>
       <c r="G17">
-        <v>3835</v>
+        <v>3027.7373218776193</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -744,22 +740,22 @@
         <v>50.966666666666697</v>
       </c>
       <c r="B18">
-        <v>4221</v>
+        <v>3715.8859874575933</v>
       </c>
       <c r="C18">
-        <v>4063</v>
+        <v>3285.8835906111226</v>
       </c>
       <c r="D18">
-        <v>4178</v>
+        <v>3248.3780438311683</v>
       </c>
       <c r="E18">
-        <v>4294</v>
+        <v>3437.6731461483082</v>
       </c>
       <c r="F18">
-        <v>4006</v>
+        <v>3376.5697503671067</v>
       </c>
       <c r="G18">
-        <v>3994</v>
+        <v>3153.2680217937968</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -767,22 +763,22 @@
         <v>53.966666666666697</v>
       </c>
       <c r="B19">
-        <v>4328</v>
+        <v>3810.0816284568737</v>
       </c>
       <c r="C19">
-        <v>4200</v>
+        <v>3396.6800592091349</v>
       </c>
       <c r="D19">
-        <v>4301</v>
+        <v>3344.0100446428569</v>
       </c>
       <c r="E19">
-        <v>4412</v>
+        <v>3532.1411087113033</v>
       </c>
       <c r="F19">
-        <v>4167</v>
+        <v>3512.2731277533035</v>
       </c>
       <c r="G19">
-        <v>4106</v>
+        <v>3241.6921626152553</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -790,22 +786,22 @@
         <v>56.966666666666697</v>
       </c>
       <c r="B20">
-        <v>4413</v>
+        <v>3884.9099414002271</v>
       </c>
       <c r="C20">
-        <v>4272</v>
+        <v>3454.9088602241486</v>
       </c>
       <c r="D20">
-        <v>4444</v>
+        <v>3455.1919642857138</v>
       </c>
       <c r="E20">
-        <v>4463</v>
+        <v>3572.9704823614115</v>
       </c>
       <c r="F20">
-        <v>4231</v>
+        <v>3566.217327459618</v>
       </c>
       <c r="G20">
-        <v>4260</v>
+        <v>3363.2753562447606</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -813,22 +809,22 @@
         <v>59.966666666666697</v>
       </c>
       <c r="B21">
-        <v>4538</v>
+        <v>3994.9515780816291</v>
       </c>
       <c r="C21">
-        <v>4367</v>
+        <v>3531.7385282300693</v>
       </c>
       <c r="D21">
-        <v>4521</v>
+        <v>3515.0591517857138</v>
       </c>
       <c r="E21">
-        <v>4561</v>
+        <v>3651.4269258459326</v>
       </c>
       <c r="F21">
-        <v>4329</v>
+        <v>3648.8193832599113</v>
       </c>
       <c r="G21">
-        <v>4350</v>
+        <v>3434.3304694048611</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -836,22 +832,22 @@
         <v>62.966666666666697</v>
       </c>
       <c r="B22">
-        <v>4685</v>
+        <v>4124.3605428189585</v>
       </c>
       <c r="C22">
-        <v>4480</v>
+        <v>3623.1253964897437</v>
       </c>
       <c r="D22">
-        <v>4688</v>
+        <v>3644.9009740259735</v>
       </c>
       <c r="E22">
-        <v>4710</v>
+        <v>3770.7127429805619</v>
       </c>
       <c r="F22">
-        <v>4539</v>
+        <v>3825.8237885462549</v>
       </c>
       <c r="G22">
-        <v>4493</v>
+        <v>3547.2291492036879</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -859,22 +855,22 @@
         <v>65.966666666666697</v>
       </c>
       <c r="B23">
-        <v>4804</v>
+        <v>4229.1201809396534</v>
       </c>
       <c r="C23">
-        <v>4646</v>
+        <v>3757.3751321632476</v>
       </c>
       <c r="D23">
-        <v>4848</v>
+        <v>3769.3003246753242</v>
       </c>
       <c r="E23">
-        <v>4811</v>
+        <v>3851.5709143268541</v>
       </c>
       <c r="F23">
-        <v>4691</v>
+        <v>3953.9412628487512</v>
       </c>
       <c r="G23">
-        <v>4679</v>
+        <v>3694.0763830678957</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
